--- a/ranking/out/production/ranking/ranking/brandname.xlsx
+++ b/ranking/out/production/ranking/ranking/brandname.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="2865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="3073">
   <si>
     <t>dreese</t>
   </si>
@@ -8616,6 +8616,630 @@
   </si>
   <si>
     <t>edgy</t>
+  </si>
+  <si>
+    <t>pendie love</t>
+  </si>
+  <si>
+    <t>streetwear</t>
+  </si>
+  <si>
+    <t>sequins</t>
+  </si>
+  <si>
+    <t>erin jane designs</t>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>joss whedon</t>
+  </si>
+  <si>
+    <t>hanel</t>
+  </si>
+  <si>
+    <t>handmade</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>successandnothingless</t>
+  </si>
+  <si>
+    <t>t-shirts</t>
+  </si>
+  <si>
+    <t>cout</t>
+  </si>
+  <si>
+    <t>Yumi Lambert</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>liketkit</t>
+  </si>
+  <si>
+    <t>rench</t>
+  </si>
+  <si>
+    <t>14xbags</t>
+  </si>
+  <si>
+    <t>short sleeve tees</t>
+  </si>
+  <si>
+    <t>shopetsy</t>
+  </si>
+  <si>
+    <t>supercar</t>
+  </si>
+  <si>
+    <t>eys</t>
+  </si>
+  <si>
+    <t>n Win Development</t>
+  </si>
+  <si>
+    <t>kirts</t>
+  </si>
+  <si>
+    <t>ghghgh i rly need to get back into the habit of posting these whoops</t>
+  </si>
+  <si>
+    <t>hing</t>
+  </si>
+  <si>
+    <t>inspiring</t>
+  </si>
+  <si>
+    <t>overlifesuccessclothing</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>pullups</t>
+  </si>
+  <si>
+    <t>assecories</t>
+  </si>
+  <si>
+    <t>summeroutfit</t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t>louis vuitton</t>
+  </si>
+  <si>
+    <t>4hats</t>
+  </si>
+  <si>
+    <t>shopsmall</t>
+  </si>
+  <si>
+    <t>metalwork</t>
+  </si>
+  <si>
+    <t>hams</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>winter fashion</t>
+  </si>
+  <si>
+    <t>antage</t>
+  </si>
+  <si>
+    <t>bigomeezy</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>nakit</t>
+  </si>
+  <si>
+    <t>oper</t>
+  </si>
+  <si>
+    <t>empo</t>
+  </si>
+  <si>
+    <t>ool</t>
+  </si>
+  <si>
+    <t>handmadeclothes</t>
+  </si>
+  <si>
+    <t>white t shirt</t>
+  </si>
+  <si>
+    <t>sicwiditrecords</t>
+  </si>
+  <si>
+    <t>selfie</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>ight</t>
+  </si>
+  <si>
+    <t>pleated leather mini skirt</t>
+  </si>
+  <si>
+    <t>white tops</t>
+  </si>
+  <si>
+    <t>parisian</t>
+  </si>
+  <si>
+    <t>hairstyle</t>
+  </si>
+  <si>
+    <t>ops</t>
+  </si>
+  <si>
+    <t>gorgeous</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>exost</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>madeinthemountains</t>
+  </si>
+  <si>
+    <t>indie</t>
+  </si>
+  <si>
+    <t>blogger</t>
+  </si>
+  <si>
+    <t>irage</t>
+  </si>
+  <si>
+    <t>ownalternative</t>
+  </si>
+  <si>
+    <t>pendant</t>
+  </si>
+  <si>
+    <t>short skirts</t>
+  </si>
+  <si>
+    <t>salute</t>
+  </si>
+  <si>
+    <t>blackandwhite</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>taylor swift</t>
+  </si>
+  <si>
+    <t>ffspring</t>
+  </si>
+  <si>
+    <t>please like if u see this and reblog if u can!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>teenoutfits</t>
+  </si>
+  <si>
+    <t>captain swan</t>
+  </si>
+  <si>
+    <t>skulls</t>
+  </si>
+  <si>
+    <t>sexy</t>
+  </si>
+  <si>
+    <t>française</t>
+  </si>
+  <si>
+    <t>hippie</t>
+  </si>
+  <si>
+    <t>white short sleeve top</t>
+  </si>
+  <si>
+    <t>outf</t>
+  </si>
+  <si>
+    <t>misogyny</t>
+  </si>
+  <si>
+    <t>lifestyle</t>
+  </si>
+  <si>
+    <t>pendletonwool</t>
+  </si>
+  <si>
+    <t>mini skirts</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>forever</t>
+  </si>
+  <si>
+    <t>etro</t>
+  </si>
+  <si>
+    <t>reindeer</t>
+  </si>
+  <si>
+    <t>eon</t>
+  </si>
+  <si>
+    <t>gold bracelet bangle</t>
+  </si>
+  <si>
+    <t>lternative</t>
+  </si>
+  <si>
+    <t>rainy</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>nudie</t>
+  </si>
+  <si>
+    <t>artisanmade</t>
+  </si>
+  <si>
+    <t>long hair</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ark </t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>brandmovement</t>
+  </si>
+  <si>
+    <t>pajamas</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>parches</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>tswizzle</t>
+  </si>
+  <si>
+    <t>rosewholesale</t>
+  </si>
+  <si>
+    <t>pple</t>
+  </si>
+  <si>
+    <t>statement necklace</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>cheap clothes</t>
+  </si>
+  <si>
+    <t>gold wristwatches</t>
+  </si>
+  <si>
+    <t>december</t>
+  </si>
+  <si>
+    <t>eather</t>
+  </si>
+  <si>
+    <t>slogan t-shirts</t>
+  </si>
+  <si>
+    <t>gold watches</t>
+  </si>
+  <si>
+    <t>ㅁㅁㅁㅁ</t>
+  </si>
+  <si>
+    <t>blouse</t>
+  </si>
+  <si>
+    <t>haus</t>
+  </si>
+  <si>
+    <t>heels</t>
+  </si>
+  <si>
+    <t>one direction</t>
+  </si>
+  <si>
+    <t>goth</t>
+  </si>
+  <si>
+    <t>yo vogue clothing</t>
+  </si>
+  <si>
+    <t>obra</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>captain hook</t>
+  </si>
+  <si>
+    <t>etsy</t>
+  </si>
+  <si>
+    <t>MCouture</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>black skater skirt</t>
+  </si>
+  <si>
+    <t>awasome</t>
+  </si>
+  <si>
+    <t>outfitpost</t>
+  </si>
+  <si>
+    <t>ilustration</t>
+  </si>
+  <si>
+    <t>Safe</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>recycled 14k yellow gold</t>
+  </si>
+  <si>
+    <t>riggs</t>
+  </si>
+  <si>
+    <t>bottoms</t>
+  </si>
+  <si>
+    <t>snapbacks</t>
+  </si>
+  <si>
+    <t>make up</t>
+  </si>
+  <si>
+    <t>emma swan</t>
+  </si>
+  <si>
+    <t>goodhairday</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>tumblr chile</t>
+  </si>
+  <si>
+    <t>rizm</t>
+  </si>
+  <si>
+    <t>jewelry</t>
+  </si>
+  <si>
+    <t>cotto</t>
+  </si>
+  <si>
+    <t>menswear</t>
+  </si>
+  <si>
+    <t>blank space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etro </t>
+  </si>
+  <si>
+    <t>ms cool</t>
+  </si>
+  <si>
+    <t>garbedge</t>
+  </si>
+  <si>
+    <t>smallbags</t>
+  </si>
+  <si>
+    <t>my baby's got good taste</t>
+  </si>
+  <si>
+    <t>wavy hair</t>
+  </si>
+  <si>
+    <t>ayudaaaaaaa</t>
+  </si>
+  <si>
+    <t>fame</t>
+  </si>
+  <si>
+    <t>sportscar</t>
+  </si>
+  <si>
+    <t>leather skirt</t>
+  </si>
+  <si>
+    <t>cute clothes</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>followforfollow</t>
+  </si>
+  <si>
+    <t>saias</t>
+  </si>
+  <si>
+    <t>hipstamatic</t>
+  </si>
+  <si>
+    <t>ees</t>
+  </si>
+  <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>nsight</t>
+  </si>
+  <si>
+    <t>red carpet</t>
+  </si>
+  <si>
+    <t>curly hair</t>
+  </si>
+  <si>
+    <t>smoking</t>
+  </si>
+  <si>
+    <t>glass art</t>
+  </si>
+  <si>
+    <t>exotic</t>
+  </si>
+  <si>
+    <t>gold jewelry</t>
+  </si>
+  <si>
+    <t>oats</t>
+  </si>
+  <si>
+    <t>overcoat</t>
+  </si>
+  <si>
+    <t>no ragrets</t>
+  </si>
+  <si>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>dope</t>
+  </si>
+  <si>
+    <t>tribalfashion</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>buffy the vampire slayer</t>
+  </si>
+  <si>
+    <t>mensfashion</t>
+  </si>
+  <si>
+    <t>rrow</t>
+  </si>
+  <si>
+    <t>turtle neck sweaters</t>
+  </si>
+  <si>
+    <t>hallenger</t>
+  </si>
+  <si>
+    <t>this is me</t>
+  </si>
+  <si>
+    <t>ASO</t>
+  </si>
+  <si>
+    <t>street wear</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>gold hinged bracelet</t>
+  </si>
+  <si>
+    <t>asis</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>anos</t>
+  </si>
+  <si>
+    <t>hinged bangle bracelet</t>
+  </si>
+  <si>
+    <t>h&amp;m sweater</t>
+  </si>
+  <si>
+    <t>aravan</t>
+  </si>
+  <si>
+    <t>oversized tops</t>
+  </si>
+  <si>
+    <t>ntree</t>
+  </si>
+  <si>
+    <t>rumpler</t>
+  </si>
+  <si>
+    <t>brown sweater</t>
+  </si>
+  <si>
+    <t>lush</t>
   </si>
 </sst>
 </file>
@@ -22547,20 +23171,20 @@
         <v>2672</v>
       </c>
       <c r="B1" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2673</v>
+        <v>2865</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2674</v>
+        <v>2866</v>
       </c>
       <c r="B3" t="n">
         <v>3.0</v>
@@ -22568,7 +23192,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2675</v>
+        <v>2867</v>
       </c>
       <c r="B4" t="n">
         <v>3.0</v>
@@ -22576,15 +23200,15 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2676</v>
+        <v>2868</v>
       </c>
       <c r="B5" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B6" t="n">
         <v>3.0</v>
@@ -22592,31 +23216,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B8" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2680</v>
+        <v>2869</v>
       </c>
       <c r="B9" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2681</v>
+        <v>3052</v>
       </c>
       <c r="B10" t="n">
         <v>4.0</v>
@@ -22624,23 +23248,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="B11" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2683</v>
+        <v>2870</v>
       </c>
       <c r="B12" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2684</v>
+        <v>2871</v>
       </c>
       <c r="B13" t="n">
         <v>3.0</v>
@@ -22648,15 +23272,15 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2685</v>
+        <v>2872</v>
       </c>
       <c r="B14" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2686</v>
+        <v>3053</v>
       </c>
       <c r="B15" t="n">
         <v>3.0</v>
@@ -22664,7 +23288,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2687</v>
+        <v>2873</v>
       </c>
       <c r="B16" t="n">
         <v>3.0</v>
@@ -22672,7 +23296,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2688</v>
+        <v>2874</v>
       </c>
       <c r="B17" t="n">
         <v>3.0</v>
@@ -22680,23 +23304,23 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2689</v>
+        <v>2875</v>
       </c>
       <c r="B18" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2690</v>
+        <v>2682</v>
       </c>
       <c r="B19" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2691</v>
+        <v>2876</v>
       </c>
       <c r="B20" t="n">
         <v>3.0</v>
@@ -22704,15 +23328,15 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2692</v>
+        <v>2685</v>
       </c>
       <c r="B21" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2693</v>
+        <v>2877</v>
       </c>
       <c r="B22" t="n">
         <v>3.0</v>
@@ -22720,7 +23344,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2694</v>
+        <v>2878</v>
       </c>
       <c r="B23" t="n">
         <v>3.0</v>
@@ -22728,7 +23352,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2695</v>
+        <v>2879</v>
       </c>
       <c r="B24" t="n">
         <v>3.0</v>
@@ -22736,15 +23360,15 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2696</v>
+        <v>3054</v>
       </c>
       <c r="B25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2697</v>
+        <v>2880</v>
       </c>
       <c r="B26" t="n">
         <v>3.0</v>
@@ -22752,7 +23376,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2698</v>
+        <v>2881</v>
       </c>
       <c r="B27" t="n">
         <v>3.0</v>
@@ -22760,15 +23384,15 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2699</v>
+        <v>2882</v>
       </c>
       <c r="B28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2700</v>
+        <v>2883</v>
       </c>
       <c r="B29" t="n">
         <v>3.0</v>
@@ -22776,7 +23400,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2701</v>
+        <v>2690</v>
       </c>
       <c r="B30" t="n">
         <v>3.0</v>
@@ -22784,39 +23408,39 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2702</v>
+        <v>2884</v>
       </c>
       <c r="B31" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2703</v>
+        <v>2691</v>
       </c>
       <c r="B32" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2704</v>
+        <v>3055</v>
       </c>
       <c r="B33" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2705</v>
+        <v>2885</v>
       </c>
       <c r="B34" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2706</v>
+        <v>2695</v>
       </c>
       <c r="B35" t="n">
         <v>3.0</v>
@@ -22824,15 +23448,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2707</v>
+        <v>3056</v>
       </c>
       <c r="B36" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2708</v>
+        <v>2886</v>
       </c>
       <c r="B37" t="n">
         <v>6.0</v>
@@ -22840,55 +23464,55 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2709</v>
+        <v>2887</v>
       </c>
       <c r="B38" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2710</v>
+        <v>2888</v>
       </c>
       <c r="B39" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2711</v>
+        <v>2889</v>
       </c>
       <c r="B40" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2712</v>
+        <v>2890</v>
       </c>
       <c r="B41" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2713</v>
+        <v>2891</v>
       </c>
       <c r="B42" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2714</v>
+        <v>2892</v>
       </c>
       <c r="B43" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2715</v>
+        <v>2893</v>
       </c>
       <c r="B44" t="n">
         <v>3.0</v>
@@ -22896,23 +23520,23 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2716</v>
+        <v>2894</v>
       </c>
       <c r="B45" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2717</v>
+        <v>2704</v>
       </c>
       <c r="B46" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2718</v>
+        <v>2895</v>
       </c>
       <c r="B47" t="n">
         <v>3.0</v>
@@ -22920,15 +23544,15 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2719</v>
+        <v>2896</v>
       </c>
       <c r="B48" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2720</v>
+        <v>3057</v>
       </c>
       <c r="B49" t="n">
         <v>3.0</v>
@@ -22936,7 +23560,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2721</v>
+        <v>2897</v>
       </c>
       <c r="B50" t="n">
         <v>3.0</v>
@@ -22944,7 +23568,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2722</v>
+        <v>2898</v>
       </c>
       <c r="B51" t="n">
         <v>3.0</v>
@@ -22952,7 +23576,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2723</v>
+        <v>2710</v>
       </c>
       <c r="B52" t="n">
         <v>3.0</v>
@@ -22960,15 +23584,15 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2724</v>
+        <v>2899</v>
       </c>
       <c r="B53" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2725</v>
+        <v>2900</v>
       </c>
       <c r="B54" t="n">
         <v>3.0</v>
@@ -22976,7 +23600,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2726</v>
+        <v>2713</v>
       </c>
       <c r="B55" t="n">
         <v>3.0</v>
@@ -22984,23 +23608,23 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2727</v>
+        <v>2715</v>
       </c>
       <c r="B56" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2728</v>
+        <v>3058</v>
       </c>
       <c r="B57" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2729</v>
+        <v>2717</v>
       </c>
       <c r="B58" t="n">
         <v>3.0</v>
@@ -23008,7 +23632,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2730</v>
+        <v>2718</v>
       </c>
       <c r="B59" t="n">
         <v>3.0</v>
@@ -23016,47 +23640,47 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2731</v>
+        <v>2901</v>
       </c>
       <c r="B60" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2732</v>
+        <v>2902</v>
       </c>
       <c r="B61" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2733</v>
+        <v>2903</v>
       </c>
       <c r="B62" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2734</v>
+        <v>2904</v>
       </c>
       <c r="B63" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2735</v>
+        <v>3059</v>
       </c>
       <c r="B64" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2736</v>
+        <v>2722</v>
       </c>
       <c r="B65" t="n">
         <v>3.0</v>
@@ -23064,23 +23688,23 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2737</v>
+        <v>2905</v>
       </c>
       <c r="B66" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2738</v>
+        <v>2906</v>
       </c>
       <c r="B67" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2739</v>
+        <v>2907</v>
       </c>
       <c r="B68" t="n">
         <v>3.0</v>
@@ -23088,31 +23712,31 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2740</v>
+        <v>2908</v>
       </c>
       <c r="B69" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2741</v>
+        <v>2727</v>
       </c>
       <c r="B70" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2742</v>
+        <v>2728</v>
       </c>
       <c r="B71" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2743</v>
+        <v>3060</v>
       </c>
       <c r="B72" t="n">
         <v>3.0</v>
@@ -23120,15 +23744,15 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2744</v>
+        <v>2731</v>
       </c>
       <c r="B73" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2745</v>
+        <v>2732</v>
       </c>
       <c r="B74" t="n">
         <v>3.0</v>
@@ -23136,7 +23760,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>2746</v>
+        <v>2733</v>
       </c>
       <c r="B75" t="n">
         <v>3.0</v>
@@ -23144,15 +23768,15 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2747</v>
+        <v>2734</v>
       </c>
       <c r="B76" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>2748</v>
+        <v>2909</v>
       </c>
       <c r="B77" t="n">
         <v>3.0</v>
@@ -23160,23 +23784,23 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>2749</v>
+        <v>2737</v>
       </c>
       <c r="B78" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2750</v>
+        <v>2738</v>
       </c>
       <c r="B79" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2751</v>
+        <v>2910</v>
       </c>
       <c r="B80" t="n">
         <v>3.0</v>
@@ -23184,15 +23808,15 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2752</v>
+        <v>2911</v>
       </c>
       <c r="B81" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2753</v>
+        <v>2739</v>
       </c>
       <c r="B82" t="n">
         <v>3.0</v>
@@ -23200,7 +23824,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2754</v>
+        <v>2740</v>
       </c>
       <c r="B83" t="n">
         <v>3.0</v>
@@ -23208,15 +23832,15 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2755</v>
+        <v>2912</v>
       </c>
       <c r="B84" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2756</v>
+        <v>2741</v>
       </c>
       <c r="B85" t="n">
         <v>3.0</v>
@@ -23224,7 +23848,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2757</v>
+        <v>2913</v>
       </c>
       <c r="B86" t="n">
         <v>3.0</v>
@@ -23232,15 +23856,15 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2758</v>
+        <v>2742</v>
       </c>
       <c r="B87" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2759</v>
+        <v>2914</v>
       </c>
       <c r="B88" t="n">
         <v>3.0</v>
@@ -23248,7 +23872,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>2760</v>
+        <v>2915</v>
       </c>
       <c r="B89" t="n">
         <v>3.0</v>
@@ -23256,7 +23880,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2761</v>
+        <v>2916</v>
       </c>
       <c r="B90" t="n">
         <v>3.0</v>
@@ -23264,47 +23888,47 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>2762</v>
+        <v>2744</v>
       </c>
       <c r="B91" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2763</v>
+        <v>2917</v>
       </c>
       <c r="B92" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>2764</v>
+        <v>2918</v>
       </c>
       <c r="B93" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>2765</v>
+        <v>2747</v>
       </c>
       <c r="B94" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2766</v>
+        <v>2749</v>
       </c>
       <c r="B95" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>2767</v>
+        <v>2919</v>
       </c>
       <c r="B96" t="n">
         <v>3.0</v>
@@ -23312,7 +23936,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>2768</v>
+        <v>2920</v>
       </c>
       <c r="B97" t="n">
         <v>3.0</v>
@@ -23320,15 +23944,15 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2769</v>
+        <v>2752</v>
       </c>
       <c r="B98" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2770</v>
+        <v>2921</v>
       </c>
       <c r="B99" t="n">
         <v>3.0</v>
@@ -23336,15 +23960,15 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2771</v>
+        <v>3061</v>
       </c>
       <c r="B100" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2772</v>
+        <v>2922</v>
       </c>
       <c r="B101" t="n">
         <v>3.0</v>
@@ -23352,7 +23976,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>2773</v>
+        <v>2923</v>
       </c>
       <c r="B102" t="n">
         <v>3.0</v>
@@ -23360,47 +23984,47 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>2774</v>
+        <v>2924</v>
       </c>
       <c r="B103" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>2775</v>
+        <v>2925</v>
       </c>
       <c r="B104" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>2776</v>
+        <v>2926</v>
       </c>
       <c r="B105" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>2777</v>
+        <v>2927</v>
       </c>
       <c r="B106" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>2778</v>
+        <v>2928</v>
       </c>
       <c r="B107" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>2779</v>
+        <v>2929</v>
       </c>
       <c r="B108" t="n">
         <v>3.0</v>
@@ -23408,15 +24032,15 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>2780</v>
+        <v>2930</v>
       </c>
       <c r="B109" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>2781</v>
+        <v>2931</v>
       </c>
       <c r="B110" t="n">
         <v>3.0</v>
@@ -23424,7 +24048,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>2782</v>
+        <v>2761</v>
       </c>
       <c r="B111" t="n">
         <v>3.0</v>
@@ -23432,7 +24056,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>2783</v>
+        <v>2932</v>
       </c>
       <c r="B112" t="n">
         <v>3.0</v>
@@ -23440,7 +24064,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>2784</v>
+        <v>2933</v>
       </c>
       <c r="B113" t="n">
         <v>4.0</v>
@@ -23448,7 +24072,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>2785</v>
+        <v>2934</v>
       </c>
       <c r="B114" t="n">
         <v>3.0</v>
@@ -23456,23 +24080,23 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>2786</v>
+        <v>2935</v>
       </c>
       <c r="B115" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>2787</v>
+        <v>2936</v>
       </c>
       <c r="B116" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>2788</v>
+        <v>2937</v>
       </c>
       <c r="B117" t="n">
         <v>3.0</v>
@@ -23480,31 +24104,31 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>2789</v>
+        <v>2938</v>
       </c>
       <c r="B118" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>2790</v>
+        <v>2939</v>
       </c>
       <c r="B119" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>2791</v>
+        <v>2940</v>
       </c>
       <c r="B120" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>2792</v>
+        <v>2941</v>
       </c>
       <c r="B121" t="n">
         <v>3.0</v>
@@ -23512,7 +24136,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>2793</v>
+        <v>2942</v>
       </c>
       <c r="B122" t="n">
         <v>3.0</v>
@@ -23520,7 +24144,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>2794</v>
+        <v>2943</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -23528,7 +24152,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>2795</v>
+        <v>2944</v>
       </c>
       <c r="B124" t="n">
         <v>3.0</v>
@@ -23536,7 +24160,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>2796</v>
+        <v>2945</v>
       </c>
       <c r="B125" t="n">
         <v>3.0</v>
@@ -23544,23 +24168,23 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>2797</v>
+        <v>2946</v>
       </c>
       <c r="B126" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>2798</v>
+        <v>2947</v>
       </c>
       <c r="B127" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>2799</v>
+        <v>2948</v>
       </c>
       <c r="B128" t="n">
         <v>3.0</v>
@@ -23568,7 +24192,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>2800</v>
+        <v>2949</v>
       </c>
       <c r="B129" t="n">
         <v>3.0</v>
@@ -23576,7 +24200,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>2801</v>
+        <v>2950</v>
       </c>
       <c r="B130" t="n">
         <v>3.0</v>
@@ -23584,15 +24208,15 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>2802</v>
+        <v>2773</v>
       </c>
       <c r="B131" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>2803</v>
+        <v>3062</v>
       </c>
       <c r="B132" t="n">
         <v>3.0</v>
@@ -23600,15 +24224,15 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>2804</v>
+        <v>2951</v>
       </c>
       <c r="B133" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>2805</v>
+        <v>2774</v>
       </c>
       <c r="B134" t="n">
         <v>3.0</v>
@@ -23616,7 +24240,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>2806</v>
+        <v>2952</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -23624,15 +24248,15 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>2807</v>
+        <v>3063</v>
       </c>
       <c r="B136" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>2808</v>
+        <v>2953</v>
       </c>
       <c r="B137" t="n">
         <v>3.0</v>
@@ -23640,15 +24264,15 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>2809</v>
+        <v>2954</v>
       </c>
       <c r="B138" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>2810</v>
+        <v>3064</v>
       </c>
       <c r="B139" t="n">
         <v>3.0</v>
@@ -23656,7 +24280,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>2811</v>
+        <v>2777</v>
       </c>
       <c r="B140" t="n">
         <v>3.0</v>
@@ -23664,7 +24288,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>2812</v>
+        <v>2955</v>
       </c>
       <c r="B141" t="n">
         <v>3.0</v>
@@ -23672,7 +24296,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>2813</v>
+        <v>2956</v>
       </c>
       <c r="B142" t="n">
         <v>3.0</v>
@@ -23680,31 +24304,31 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>2814</v>
+        <v>2778</v>
       </c>
       <c r="B143" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>2815</v>
+        <v>2957</v>
       </c>
       <c r="B144" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>2816</v>
+        <v>2958</v>
       </c>
       <c r="B145" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>2817</v>
+        <v>2784</v>
       </c>
       <c r="B146" t="n">
         <v>3.0</v>
@@ -23712,31 +24336,31 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>2818</v>
+        <v>2786</v>
       </c>
       <c r="B147" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>2819</v>
+        <v>3065</v>
       </c>
       <c r="B148" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>2820</v>
+        <v>2959</v>
       </c>
       <c r="B149" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>2821</v>
+        <v>2787</v>
       </c>
       <c r="B150" t="n">
         <v>3.0</v>
@@ -23744,7 +24368,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>2822</v>
+        <v>2960</v>
       </c>
       <c r="B151" t="n">
         <v>3.0</v>
@@ -23752,15 +24376,15 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>2823</v>
+        <v>2961</v>
       </c>
       <c r="B152" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>2824</v>
+        <v>2788</v>
       </c>
       <c r="B153" t="n">
         <v>3.0</v>
@@ -23768,23 +24392,23 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>2825</v>
+        <v>2790</v>
       </c>
       <c r="B154" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>2826</v>
+        <v>2962</v>
       </c>
       <c r="B155" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>2827</v>
+        <v>2963</v>
       </c>
       <c r="B156" t="n">
         <v>3.0</v>
@@ -23792,23 +24416,23 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>2828</v>
+        <v>2792</v>
       </c>
       <c r="B157" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>2829</v>
+        <v>3066</v>
       </c>
       <c r="B158" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>2830</v>
+        <v>2964</v>
       </c>
       <c r="B159" t="n">
         <v>4.0</v>
@@ -23816,23 +24440,23 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>2831</v>
+        <v>2965</v>
       </c>
       <c r="B160" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>2832</v>
+        <v>3067</v>
       </c>
       <c r="B161" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>2833</v>
+        <v>2795</v>
       </c>
       <c r="B162" t="n">
         <v>3.0</v>
@@ -23840,7 +24464,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>2834</v>
+        <v>2966</v>
       </c>
       <c r="B163" t="n">
         <v>3.0</v>
@@ -23848,23 +24472,23 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>2835</v>
+        <v>2967</v>
       </c>
       <c r="B164" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>2836</v>
+        <v>2797</v>
       </c>
       <c r="B165" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>2837</v>
+        <v>2968</v>
       </c>
       <c r="B166" t="n">
         <v>3.0</v>
@@ -23872,15 +24496,15 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>2838</v>
+        <v>2969</v>
       </c>
       <c r="B167" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>2839</v>
+        <v>2970</v>
       </c>
       <c r="B168" t="n">
         <v>3.0</v>
@@ -23888,15 +24512,15 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>2840</v>
+        <v>2802</v>
       </c>
       <c r="B169" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>2841</v>
+        <v>3068</v>
       </c>
       <c r="B170" t="n">
         <v>4.0</v>
@@ -23904,15 +24528,15 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>2842</v>
+        <v>2971</v>
       </c>
       <c r="B171" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>2843</v>
+        <v>2972</v>
       </c>
       <c r="B172" t="n">
         <v>3.0</v>
@@ -23920,15 +24544,15 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>2844</v>
+        <v>2973</v>
       </c>
       <c r="B173" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>2845</v>
+        <v>3069</v>
       </c>
       <c r="B174" t="n">
         <v>3.0</v>
@@ -23936,7 +24560,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>2846</v>
+        <v>2807</v>
       </c>
       <c r="B175" t="n">
         <v>3.0</v>
@@ -23944,7 +24568,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>2847</v>
+        <v>2974</v>
       </c>
       <c r="B176" t="n">
         <v>3.0</v>
@@ -23952,7 +24576,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>2848</v>
+        <v>2975</v>
       </c>
       <c r="B177" t="n">
         <v>3.0</v>
@@ -23960,23 +24584,23 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>2849</v>
+        <v>2976</v>
       </c>
       <c r="B178" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>2850</v>
+        <v>2977</v>
       </c>
       <c r="B179" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>2851</v>
+        <v>2809</v>
       </c>
       <c r="B180" t="n">
         <v>3.0</v>
@@ -23984,31 +24608,31 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>2852</v>
+        <v>2810</v>
       </c>
       <c r="B181" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>2853</v>
+        <v>2978</v>
       </c>
       <c r="B182" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>2854</v>
+        <v>3070</v>
       </c>
       <c r="B183" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>2855</v>
+        <v>2979</v>
       </c>
       <c r="B184" t="n">
         <v>3.0</v>
@@ -24016,23 +24640,23 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>2856</v>
+        <v>2980</v>
       </c>
       <c r="B185" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>2857</v>
+        <v>2981</v>
       </c>
       <c r="B186" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>2858</v>
+        <v>2982</v>
       </c>
       <c r="B187" t="n">
         <v>3.0</v>
@@ -24040,31 +24664,31 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>2859</v>
+        <v>2983</v>
       </c>
       <c r="B188" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>2860</v>
+        <v>2984</v>
       </c>
       <c r="B189" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>2861</v>
+        <v>2985</v>
       </c>
       <c r="B190" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>2862</v>
+        <v>2986</v>
       </c>
       <c r="B191" t="n">
         <v>3.0</v>
@@ -24072,7 +24696,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>2863</v>
+        <v>2987</v>
       </c>
       <c r="B192" t="n">
         <v>3.0</v>
@@ -24080,9 +24704,641 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>2864</v>
+        <v>2818</v>
       </c>
       <c r="B193" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B209" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B217" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B229" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B244" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B245" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B246" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B261" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B272" t="n">
         <v>3.0</v>
       </c>
     </row>
